--- a/data/output/FV2504_FV2410/UTILMD/44168.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44168.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7346" uniqueCount="510">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7367" uniqueCount="510">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1636,6 +1636,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U318" totalsRowShown="0">
+  <autoFilter ref="A1:U318"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1925,7 +1955,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17498,5 +17531,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/44168.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44168.xlsx
@@ -2994,7 +2994,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -5144,7 +5144,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -5362,7 +5362,7 @@
         <v>492</v>
       </c>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -5632,7 +5632,7 @@
         <v>493</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6510,7 +6510,7 @@
         <v>492</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -8520,7 +8520,7 @@
         <v>498</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10798,7 +10798,7 @@
         <v>499</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -11560,7 +11560,7 @@
         <v>500</v>
       </c>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -12012,7 +12012,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -12172,7 +12172,7 @@
         <v>499</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -12334,7 +12334,7 @@
         <v>500</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12482,7 +12482,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -13154,7 +13154,7 @@
         <v>499</v>
       </c>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -13370,7 +13370,7 @@
         <v>501</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -13520,7 +13520,7 @@
         <v>502</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13740,7 +13740,7 @@
         <v>498</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -14118,7 +14118,7 @@
         <v>504</v>
       </c>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -14530,7 +14530,7 @@
         <v>504</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -14888,7 +14888,7 @@
         <v>505</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -15088,7 +15088,7 @@
         <v>506</v>
       </c>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -15390,7 +15390,7 @@
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -15694,7 +15694,7 @@
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -16066,7 +16066,7 @@
         <v>500</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -16356,7 +16356,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -16516,7 +16516,7 @@
         <v>508</v>
       </c>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -16828,7 +16828,7 @@
         <v>508</v>
       </c>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -17358,7 +17358,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -17666,7 +17666,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -18194,7 +18194,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -18610,7 +18610,7 @@
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -19142,7 +19142,7 @@
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -19302,7 +19302,7 @@
       </c>
       <c r="K316" s="2"/>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N316" s="2"/>
